--- a/JSON/Levels10.xlsx
+++ b/JSON/Levels10.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emchar1/Documents/Xcode Projects/Projects/PUZL Boy/JSON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5D9BA6-0C98-EF46-AFB1-A11AA1547B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F80E7981-7C78-1D4B-BECA-7DB5191AECFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="-2400" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3980" yWindow="2680" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="csvjson" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12008" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13343" uniqueCount="92">
   <si>
     <t>health</t>
   </si>
@@ -308,16 +308,16 @@
     <t>lava</t>
   </si>
   <si>
-    <t>hash</t>
+    <t>size</t>
   </si>
   <si>
-    <t>size</t>
+    <t>hash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1220,24 +1220,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BY377"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BY402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G308" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G373" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B362" sqref="B362"/>
+      <selection pane="bottomRight" activeCell="F388" sqref="F388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <f t="shared" ref="A3:A66" si="0">COUNTA(F3:K3)</f>
+        <f>COUNTA(F3:K3)</f>
         <v>3</v>
       </c>
       <c r="B3" s="8">
@@ -1629,7 +1629,7 @@
     </row>
     <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A4:A67" si="0">COUNTA(F4:K4)</f>
         <v>3</v>
       </c>
       <c r="B4" s="8">
@@ -7626,7 +7626,7 @@
     </row>
     <row r="67" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
-        <f t="shared" ref="A67:A130" si="3">COUNTA(F67:K67)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B67" s="8">
@@ -7724,7 +7724,7 @@
     </row>
     <row r="68" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A68:A131" si="3">COUNTA(F68:K68)</f>
         <v>3</v>
       </c>
       <c r="B68" s="8">
@@ -14411,7 +14411,7 @@
     </row>
     <row r="131" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A131" s="7">
-        <f t="shared" ref="A131:A194" si="6">COUNTA(F131:K131)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B131" s="8">
@@ -14522,7 +14522,7 @@
     </row>
     <row r="132" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A132" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A132:A195" si="6">COUNTA(F132:K132)</f>
         <v>4</v>
       </c>
       <c r="B132" s="8">
@@ -22124,7 +22124,7 @@
     </row>
     <row r="195" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A195" s="7">
-        <f t="shared" ref="A195:A258" si="9">COUNTA(F195:K195)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="B195" s="8">
@@ -22238,7 +22238,7 @@
     </row>
     <row r="196" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A196" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="A196:A259" si="9">COUNTA(F196:K196)</f>
         <v>4</v>
       </c>
       <c r="B196" s="8">
@@ -31665,7 +31665,7 @@
     </row>
     <row r="259" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A259" s="7">
-        <f t="shared" ref="A259:A322" si="12">COUNTA(F259:K259)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B259" s="8">
@@ -31820,7 +31820,7 @@
     </row>
     <row r="260" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A260" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="A260:A323" si="12">COUNTA(F260:K260)</f>
         <v>5</v>
       </c>
       <c r="B260" s="8">
@@ -42870,7 +42870,7 @@
     </row>
     <row r="323" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A323" s="7">
-        <f t="shared" ref="A323:A377" si="15">COUNTA(F323:K323)</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="B323" s="8">
@@ -43048,15 +43048,15 @@
     </row>
     <row r="324" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A324" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="A324:A387" si="15">COUNTA(F324:K324)</f>
         <v>6</v>
       </c>
       <c r="B324" s="8">
-        <f t="shared" ref="B324:B377" si="16">B323+1</f>
+        <f t="shared" ref="B324:B387" si="16">B323+1</f>
         <v>322</v>
       </c>
       <c r="C324" s="8">
-        <f t="shared" ref="C324:C377" si="17">B324</f>
+        <f t="shared" ref="C324:C387" si="17">B324</f>
         <v>322</v>
       </c>
       <c r="D324" s="9">
@@ -49800,7 +49800,7 @@
     </row>
     <row r="361" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A361" s="7">
-        <f>COUNTA(F361:K361)</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="B361" s="8">
@@ -49974,7 +49974,7 @@
     </row>
     <row r="362" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A362" s="7">
-        <f>COUNTA(F362:K362)</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="B362" s="8">
@@ -50173,7 +50173,7 @@
     </row>
     <row r="363" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A363" s="7">
-        <f>COUNTA(F363:K363)</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="B363" s="8">
@@ -50540,7 +50540,7 @@
     </row>
     <row r="365" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A365" s="7">
-        <f>COUNTA(F365:K365)</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="B365" s="8">
@@ -50725,7 +50725,7 @@
     </row>
     <row r="366" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A366" s="7">
-        <f>COUNTA(F366:K366)</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="B366" s="8">
@@ -51020,7 +51020,7 @@
         <v>88</v>
       </c>
       <c r="AM367" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AN367" s="10" t="s">
         <v>89</v>
@@ -51058,9 +51058,6 @@
       <c r="BO367" t="s">
         <v>80</v>
       </c>
-      <c r="BP367" t="s">
-        <v>78</v>
-      </c>
       <c r="BQ367" t="s">
         <v>79</v>
       </c>
@@ -51079,7 +51076,7 @@
     </row>
     <row r="368" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A368" s="7">
-        <f>COUNTA(F368:K368)</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="B368" s="8">
@@ -51257,7 +51254,7 @@
     </row>
     <row r="369" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A369" s="7">
-        <f>COUNTA(F369:K369)</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="B369" s="8">
@@ -51432,7 +51429,7 @@
     </row>
     <row r="370" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A370" s="7">
-        <f>COUNTA(F370:K370)</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="B370" s="8">
@@ -52894,8 +52891,4728 @@
       <c r="BX377" s="11"/>
       <c r="BY377" s="11"/>
     </row>
+    <row r="378" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A378" s="7">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="B378" s="8">
+        <f t="shared" si="16"/>
+        <v>376</v>
+      </c>
+      <c r="C378" s="8">
+        <f t="shared" si="17"/>
+        <v>376</v>
+      </c>
+      <c r="D378" s="9">
+        <v>22</v>
+      </c>
+      <c r="E378" s="9">
+        <v>1</v>
+      </c>
+      <c r="F378" t="s">
+        <v>75</v>
+      </c>
+      <c r="G378" t="s">
+        <v>88</v>
+      </c>
+      <c r="H378" t="s">
+        <v>88</v>
+      </c>
+      <c r="I378" t="s">
+        <v>88</v>
+      </c>
+      <c r="J378" t="s">
+        <v>88</v>
+      </c>
+      <c r="K378" t="s">
+        <v>77</v>
+      </c>
+      <c r="L378" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M378" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N378" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O378" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P378" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q378" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R378" t="s">
+        <v>88</v>
+      </c>
+      <c r="S378" t="s">
+        <v>88</v>
+      </c>
+      <c r="T378" t="s">
+        <v>89</v>
+      </c>
+      <c r="U378" t="s">
+        <v>89</v>
+      </c>
+      <c r="V378" t="s">
+        <v>88</v>
+      </c>
+      <c r="W378" t="s">
+        <v>88</v>
+      </c>
+      <c r="X378" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y378" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z378" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA378" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB378" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC378" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD378" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE378" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF378" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG378" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH378" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI378" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ378" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK378" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL378" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM378" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN378" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO378" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS378" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT378" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV378" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW378" s="11"/>
+      <c r="AX378" s="11"/>
+      <c r="AY378" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ378" s="11"/>
+      <c r="BA378" s="11"/>
+      <c r="BF378" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH378" s="11"/>
+      <c r="BI378" s="11"/>
+      <c r="BJ378" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BK378" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BL378" s="11"/>
+      <c r="BM378" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT378" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BU378" s="11"/>
+      <c r="BV378" s="11"/>
+      <c r="BW378" s="11"/>
+      <c r="BX378" s="11"/>
+      <c r="BY378" s="11"/>
+    </row>
+    <row r="379" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A379" s="7">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="B379" s="8">
+        <f t="shared" si="16"/>
+        <v>377</v>
+      </c>
+      <c r="C379" s="8">
+        <f t="shared" si="17"/>
+        <v>377</v>
+      </c>
+      <c r="D379" s="9">
+        <v>20</v>
+      </c>
+      <c r="E379" s="9">
+        <v>1</v>
+      </c>
+      <c r="F379" t="s">
+        <v>75</v>
+      </c>
+      <c r="G379" t="s">
+        <v>88</v>
+      </c>
+      <c r="H379" t="s">
+        <v>88</v>
+      </c>
+      <c r="I379" t="s">
+        <v>88</v>
+      </c>
+      <c r="J379" t="s">
+        <v>88</v>
+      </c>
+      <c r="K379" t="s">
+        <v>88</v>
+      </c>
+      <c r="L379" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M379" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N379" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O379" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P379" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q379" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R379" t="s">
+        <v>88</v>
+      </c>
+      <c r="S379" t="s">
+        <v>89</v>
+      </c>
+      <c r="T379" t="s">
+        <v>88</v>
+      </c>
+      <c r="U379" t="s">
+        <v>88</v>
+      </c>
+      <c r="V379" t="s">
+        <v>89</v>
+      </c>
+      <c r="W379" t="s">
+        <v>88</v>
+      </c>
+      <c r="X379" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y379" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z379" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA379" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB379" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC379" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD379" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE379" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF379" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG379" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH379" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI379" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ379" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK379" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL379" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM379" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN379" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO379" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU379" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV379" s="11"/>
+      <c r="AW379" s="11"/>
+      <c r="AX379" s="11"/>
+      <c r="AY379" s="11"/>
+      <c r="AZ379" s="11"/>
+      <c r="BA379" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD379" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE379" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH379" s="11"/>
+      <c r="BI379" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ379" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK379" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BL379" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM379" s="11"/>
+      <c r="BT379" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU379" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BV379" s="11"/>
+      <c r="BW379" s="11"/>
+      <c r="BX379" s="11"/>
+      <c r="BY379" s="11"/>
+    </row>
+    <row r="380" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A380" s="7">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="B380" s="8">
+        <f t="shared" si="16"/>
+        <v>378</v>
+      </c>
+      <c r="C380" s="8">
+        <f t="shared" si="17"/>
+        <v>378</v>
+      </c>
+      <c r="D380" s="9">
+        <v>34</v>
+      </c>
+      <c r="E380" s="9">
+        <v>1</v>
+      </c>
+      <c r="F380" t="s">
+        <v>75</v>
+      </c>
+      <c r="G380" t="s">
+        <v>88</v>
+      </c>
+      <c r="H380" t="s">
+        <v>88</v>
+      </c>
+      <c r="I380" t="s">
+        <v>88</v>
+      </c>
+      <c r="J380" t="s">
+        <v>88</v>
+      </c>
+      <c r="K380" t="s">
+        <v>77</v>
+      </c>
+      <c r="L380" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M380" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N380" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O380" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P380" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q380" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R380" t="s">
+        <v>88</v>
+      </c>
+      <c r="S380" t="s">
+        <v>88</v>
+      </c>
+      <c r="T380" t="s">
+        <v>88</v>
+      </c>
+      <c r="U380" t="s">
+        <v>88</v>
+      </c>
+      <c r="V380" t="s">
+        <v>88</v>
+      </c>
+      <c r="W380" t="s">
+        <v>88</v>
+      </c>
+      <c r="X380" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y380" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z380" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA380" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB380" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC380" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD380" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE380" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF380" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG380" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH380" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI380" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ380" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK380" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL380" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM380" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN380" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO380" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR380" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS380" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV380" s="11"/>
+      <c r="AW380" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX380" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY380" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ380" s="11"/>
+      <c r="BA380" s="11"/>
+      <c r="BB380" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD380" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE380" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH380" s="11"/>
+      <c r="BI380" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ380" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK380" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL380" s="11"/>
+      <c r="BM380" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN380" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP380" t="s">
+        <v>83</v>
+      </c>
+      <c r="BQ380" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS380" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT380" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BU380" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BV380" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW380" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BX380" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BY380" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="381" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A381" s="7">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="B381" s="8">
+        <f t="shared" si="16"/>
+        <v>379</v>
+      </c>
+      <c r="C381" s="8">
+        <f t="shared" si="17"/>
+        <v>379</v>
+      </c>
+      <c r="D381" s="9">
+        <v>27</v>
+      </c>
+      <c r="E381" s="9">
+        <v>1</v>
+      </c>
+      <c r="F381" t="s">
+        <v>88</v>
+      </c>
+      <c r="G381" t="s">
+        <v>88</v>
+      </c>
+      <c r="H381" t="s">
+        <v>88</v>
+      </c>
+      <c r="I381" t="s">
+        <v>88</v>
+      </c>
+      <c r="J381" t="s">
+        <v>88</v>
+      </c>
+      <c r="K381" t="s">
+        <v>88</v>
+      </c>
+      <c r="L381" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M381" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N381" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O381" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P381" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q381" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R381" t="s">
+        <v>77</v>
+      </c>
+      <c r="S381" t="s">
+        <v>88</v>
+      </c>
+      <c r="T381" t="s">
+        <v>88</v>
+      </c>
+      <c r="U381" t="s">
+        <v>88</v>
+      </c>
+      <c r="V381" t="s">
+        <v>88</v>
+      </c>
+      <c r="W381" t="s">
+        <v>88</v>
+      </c>
+      <c r="X381" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y381" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z381" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA381" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB381" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC381" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD381" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE381" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF381" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG381" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH381" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI381" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ381" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK381" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL381" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM381" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN381" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO381" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP381" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU381" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV381" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW381" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX381" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY381" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ381" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA381" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC381" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD381" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE381" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF381" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH381" s="11"/>
+      <c r="BI381" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ381" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK381" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BL381" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM381" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BO381" t="s">
+        <v>83</v>
+      </c>
+      <c r="BP381" t="s">
+        <v>83</v>
+      </c>
+      <c r="BQ381" t="s">
+        <v>83</v>
+      </c>
+      <c r="BR381" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS381" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT381" s="11"/>
+      <c r="BU381" s="11"/>
+      <c r="BV381" s="11"/>
+      <c r="BW381" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BX381" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY381" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="382" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A382" s="7">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="B382" s="8">
+        <f t="shared" si="16"/>
+        <v>380</v>
+      </c>
+      <c r="C382" s="8">
+        <f t="shared" si="17"/>
+        <v>380</v>
+      </c>
+      <c r="D382" s="9">
+        <v>12</v>
+      </c>
+      <c r="E382" s="9">
+        <v>1</v>
+      </c>
+      <c r="F382" t="s">
+        <v>89</v>
+      </c>
+      <c r="G382" t="s">
+        <v>89</v>
+      </c>
+      <c r="H382" t="s">
+        <v>89</v>
+      </c>
+      <c r="I382" t="s">
+        <v>89</v>
+      </c>
+      <c r="J382" t="s">
+        <v>89</v>
+      </c>
+      <c r="K382" t="s">
+        <v>89</v>
+      </c>
+      <c r="L382" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M382" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N382" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O382" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P382" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q382" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="R382" t="s">
+        <v>89</v>
+      </c>
+      <c r="S382" t="s">
+        <v>88</v>
+      </c>
+      <c r="T382" t="s">
+        <v>75</v>
+      </c>
+      <c r="U382" t="s">
+        <v>88</v>
+      </c>
+      <c r="V382" t="s">
+        <v>88</v>
+      </c>
+      <c r="W382" t="s">
+        <v>89</v>
+      </c>
+      <c r="X382" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y382" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z382" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA382" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB382" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC382" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD382" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE382" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF382" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG382" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH382" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI382" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ382" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK382" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL382" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM382" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN382" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO382" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV382" s="11"/>
+      <c r="AW382" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX382" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY382" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ382" s="11"/>
+      <c r="BA382" s="11"/>
+      <c r="BC382" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE382" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF382" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH382" s="11"/>
+      <c r="BI382" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ382" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK382" s="11"/>
+      <c r="BL382" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM382" s="11"/>
+      <c r="BP382" t="s">
+        <v>83</v>
+      </c>
+      <c r="BQ382" t="s">
+        <v>78</v>
+      </c>
+      <c r="BR382" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT382" s="11"/>
+      <c r="BU382" s="11"/>
+      <c r="BV382" s="11"/>
+      <c r="BW382" s="11"/>
+      <c r="BX382" s="11"/>
+      <c r="BY382" s="11"/>
+    </row>
+    <row r="383" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A383" s="7">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="B383" s="8">
+        <f t="shared" si="16"/>
+        <v>381</v>
+      </c>
+      <c r="C383" s="8">
+        <f t="shared" si="17"/>
+        <v>381</v>
+      </c>
+      <c r="D383" s="9">
+        <v>23</v>
+      </c>
+      <c r="E383" s="9">
+        <v>1</v>
+      </c>
+      <c r="F383" t="s">
+        <v>75</v>
+      </c>
+      <c r="G383" t="s">
+        <v>88</v>
+      </c>
+      <c r="H383" t="s">
+        <v>88</v>
+      </c>
+      <c r="I383" t="s">
+        <v>88</v>
+      </c>
+      <c r="J383" t="s">
+        <v>88</v>
+      </c>
+      <c r="K383" t="s">
+        <v>77</v>
+      </c>
+      <c r="L383" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M383" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N383" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O383" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P383" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q383" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R383" t="s">
+        <v>88</v>
+      </c>
+      <c r="S383" t="s">
+        <v>89</v>
+      </c>
+      <c r="T383" t="s">
+        <v>88</v>
+      </c>
+      <c r="U383" t="s">
+        <v>88</v>
+      </c>
+      <c r="V383" t="s">
+        <v>89</v>
+      </c>
+      <c r="W383" t="s">
+        <v>88</v>
+      </c>
+      <c r="X383" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y383" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z383" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA383" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB383" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC383" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD383" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE383" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF383" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG383" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH383" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI383" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ383" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK383" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL383" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM383" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN383" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO383" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ383" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR383" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT383" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV383" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW383" s="11"/>
+      <c r="AX383" s="11"/>
+      <c r="AY383" s="11"/>
+      <c r="AZ383" s="11"/>
+      <c r="BA383" s="11"/>
+      <c r="BD383" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE383" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH383" s="11"/>
+      <c r="BI383" s="11"/>
+      <c r="BJ383" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK383" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL383" s="11"/>
+      <c r="BM383" s="11"/>
+      <c r="BS383" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT383" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU383" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BV383" s="11"/>
+      <c r="BW383" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BX383" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY383" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="384" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A384" s="7">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="B384" s="8">
+        <f t="shared" si="16"/>
+        <v>382</v>
+      </c>
+      <c r="C384" s="8">
+        <f t="shared" si="17"/>
+        <v>382</v>
+      </c>
+      <c r="D384" s="9">
+        <v>17</v>
+      </c>
+      <c r="E384" s="9">
+        <v>1</v>
+      </c>
+      <c r="F384" t="s">
+        <v>89</v>
+      </c>
+      <c r="G384" t="s">
+        <v>89</v>
+      </c>
+      <c r="H384" t="s">
+        <v>89</v>
+      </c>
+      <c r="I384" t="s">
+        <v>89</v>
+      </c>
+      <c r="J384" t="s">
+        <v>89</v>
+      </c>
+      <c r="K384" t="s">
+        <v>89</v>
+      </c>
+      <c r="L384" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M384" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N384" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O384" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P384" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q384" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R384" t="s">
+        <v>89</v>
+      </c>
+      <c r="S384" t="s">
+        <v>89</v>
+      </c>
+      <c r="T384" t="s">
+        <v>89</v>
+      </c>
+      <c r="U384" t="s">
+        <v>89</v>
+      </c>
+      <c r="V384" t="s">
+        <v>89</v>
+      </c>
+      <c r="W384" t="s">
+        <v>88</v>
+      </c>
+      <c r="X384" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y384" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z384" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA384" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB384" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC384" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD384" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE384" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF384" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG384" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH384" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI384" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ384" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK384" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL384" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM384" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN384" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO384" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV384" s="11"/>
+      <c r="AW384" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX384" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY384" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ384" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA384" s="11"/>
+      <c r="BG384" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH384" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI384" s="11"/>
+      <c r="BJ384" s="11"/>
+      <c r="BK384" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL384" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM384" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN384" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT384" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU384" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BV384" s="11"/>
+      <c r="BW384" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX384" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BY384" s="11"/>
+    </row>
+    <row r="385" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A385" s="7">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="B385" s="8">
+        <f t="shared" si="16"/>
+        <v>383</v>
+      </c>
+      <c r="C385" s="8">
+        <f t="shared" si="17"/>
+        <v>383</v>
+      </c>
+      <c r="D385" s="9">
+        <v>22</v>
+      </c>
+      <c r="E385" s="9">
+        <v>1</v>
+      </c>
+      <c r="F385" t="s">
+        <v>88</v>
+      </c>
+      <c r="G385" t="s">
+        <v>88</v>
+      </c>
+      <c r="H385" t="s">
+        <v>89</v>
+      </c>
+      <c r="I385" t="s">
+        <v>89</v>
+      </c>
+      <c r="J385" t="s">
+        <v>88</v>
+      </c>
+      <c r="K385" t="s">
+        <v>88</v>
+      </c>
+      <c r="L385" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M385" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="N385" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O385" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P385" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q385" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R385" t="s">
+        <v>89</v>
+      </c>
+      <c r="S385" t="s">
+        <v>88</v>
+      </c>
+      <c r="T385" t="s">
+        <v>75</v>
+      </c>
+      <c r="U385" t="s">
+        <v>88</v>
+      </c>
+      <c r="V385" t="s">
+        <v>88</v>
+      </c>
+      <c r="W385" t="s">
+        <v>89</v>
+      </c>
+      <c r="X385" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y385" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z385" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA385" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB385" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC385" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD385" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE385" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF385" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG385" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH385" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI385" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ385" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK385" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL385" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM385" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN385" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO385" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP385" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ385" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT385" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU385" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV385" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW385" s="11"/>
+      <c r="AX385" s="11"/>
+      <c r="AY385" s="11"/>
+      <c r="AZ385" s="11"/>
+      <c r="BA385" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH385" s="11"/>
+      <c r="BI385" s="11"/>
+      <c r="BJ385" s="11"/>
+      <c r="BK385" s="11"/>
+      <c r="BL385" s="11"/>
+      <c r="BM385" s="11"/>
+      <c r="BN385" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS385" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT385" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BU385" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BV385" s="11"/>
+      <c r="BW385" s="11"/>
+      <c r="BX385" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BY385" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="386" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A386" s="7">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="B386" s="8">
+        <f t="shared" si="16"/>
+        <v>384</v>
+      </c>
+      <c r="C386" s="8">
+        <f t="shared" si="17"/>
+        <v>384</v>
+      </c>
+      <c r="D386" s="9">
+        <v>16</v>
+      </c>
+      <c r="E386" s="9">
+        <v>1</v>
+      </c>
+      <c r="F386" t="s">
+        <v>75</v>
+      </c>
+      <c r="G386" t="s">
+        <v>88</v>
+      </c>
+      <c r="H386" t="s">
+        <v>89</v>
+      </c>
+      <c r="I386" t="s">
+        <v>89</v>
+      </c>
+      <c r="J386" t="s">
+        <v>89</v>
+      </c>
+      <c r="K386" t="s">
+        <v>89</v>
+      </c>
+      <c r="L386" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M386" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N386" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O386" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P386" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q386" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="R386" t="s">
+        <v>89</v>
+      </c>
+      <c r="S386" t="s">
+        <v>88</v>
+      </c>
+      <c r="T386" t="s">
+        <v>89</v>
+      </c>
+      <c r="U386" t="s">
+        <v>88</v>
+      </c>
+      <c r="V386" t="s">
+        <v>89</v>
+      </c>
+      <c r="W386" t="s">
+        <v>89</v>
+      </c>
+      <c r="X386" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y386" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z386" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA386" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB386" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC386" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD386" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE386" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF386" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG386" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH386" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI386" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ386" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK386" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL386" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM386" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN386" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO386" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ386" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV386" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW386" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX386" s="11"/>
+      <c r="AY386" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ386" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA386" s="11"/>
+      <c r="BC386" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE386" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH386" s="11"/>
+      <c r="BI386" s="11"/>
+      <c r="BJ386" s="11"/>
+      <c r="BK386" s="11"/>
+      <c r="BL386" s="11"/>
+      <c r="BM386" s="11"/>
+      <c r="BP386" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT386" s="11"/>
+      <c r="BU386" s="11"/>
+      <c r="BV386" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BW386" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX386" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BY386" s="11"/>
+    </row>
+    <row r="387" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A387" s="7">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="B387" s="8">
+        <f t="shared" si="16"/>
+        <v>385</v>
+      </c>
+      <c r="C387" s="8">
+        <f t="shared" si="17"/>
+        <v>385</v>
+      </c>
+      <c r="D387" s="9">
+        <v>28</v>
+      </c>
+      <c r="E387" s="9">
+        <v>1</v>
+      </c>
+      <c r="F387" t="s">
+        <v>88</v>
+      </c>
+      <c r="G387" t="s">
+        <v>88</v>
+      </c>
+      <c r="H387" t="s">
+        <v>88</v>
+      </c>
+      <c r="I387" t="s">
+        <v>88</v>
+      </c>
+      <c r="J387" t="s">
+        <v>88</v>
+      </c>
+      <c r="K387" t="s">
+        <v>75</v>
+      </c>
+      <c r="L387" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M387" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N387" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O387" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P387" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q387" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="R387" t="s">
+        <v>88</v>
+      </c>
+      <c r="S387" t="s">
+        <v>89</v>
+      </c>
+      <c r="T387" t="s">
+        <v>88</v>
+      </c>
+      <c r="U387" t="s">
+        <v>89</v>
+      </c>
+      <c r="V387" t="s">
+        <v>88</v>
+      </c>
+      <c r="W387" t="s">
+        <v>88</v>
+      </c>
+      <c r="X387" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y387" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z387" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA387" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB387" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC387" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD387" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE387" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF387" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG387" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH387" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI387" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ387" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK387" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL387" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM387" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN387" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO387" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP387" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR387" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS387" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV387" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW387" s="11"/>
+      <c r="AX387" s="11"/>
+      <c r="AY387" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ387" s="11"/>
+      <c r="BA387" s="11"/>
+      <c r="BB387" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD387" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF387" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH387" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BI387" s="11"/>
+      <c r="BJ387" s="11"/>
+      <c r="BK387" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL387" s="11"/>
+      <c r="BM387" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT387" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BU387" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BV387" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BW387" s="11"/>
+      <c r="BX387" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY387" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="388" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A388" s="7">
+        <f t="shared" ref="A388:A402" si="18">COUNTA(F388:K388)</f>
+        <v>6</v>
+      </c>
+      <c r="B388" s="8">
+        <f t="shared" ref="B388:B402" si="19">B387+1</f>
+        <v>386</v>
+      </c>
+      <c r="C388" s="8">
+        <f t="shared" ref="C388:C402" si="20">B388</f>
+        <v>386</v>
+      </c>
+      <c r="D388" s="9">
+        <v>27</v>
+      </c>
+      <c r="E388" s="9">
+        <v>1</v>
+      </c>
+      <c r="F388" t="s">
+        <v>75</v>
+      </c>
+      <c r="G388" t="s">
+        <v>88</v>
+      </c>
+      <c r="H388" t="s">
+        <v>88</v>
+      </c>
+      <c r="I388" t="s">
+        <v>88</v>
+      </c>
+      <c r="J388" t="s">
+        <v>88</v>
+      </c>
+      <c r="K388" t="s">
+        <v>89</v>
+      </c>
+      <c r="L388" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M388" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N388" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O388" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P388" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q388" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R388" t="s">
+        <v>88</v>
+      </c>
+      <c r="S388" t="s">
+        <v>88</v>
+      </c>
+      <c r="T388" t="s">
+        <v>88</v>
+      </c>
+      <c r="U388" t="s">
+        <v>88</v>
+      </c>
+      <c r="V388" t="s">
+        <v>88</v>
+      </c>
+      <c r="W388" t="s">
+        <v>89</v>
+      </c>
+      <c r="X388" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y388" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z388" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA388" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB388" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC388" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD388" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE388" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF388" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG388" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH388" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI388" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ388" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK388" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL388" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM388" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN388" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO388" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR388" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS388" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT388" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV388" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW388" s="11"/>
+      <c r="AX388" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY388" s="11"/>
+      <c r="AZ388" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA388" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB388" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC388" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF388" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH388" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI388" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ388" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK388" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL388" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM388" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BP388" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ388" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS388" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT388" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BU388" s="11"/>
+      <c r="BV388" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW388" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BX388" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BY388" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="389" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A389" s="7">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="B389" s="8">
+        <f t="shared" si="19"/>
+        <v>387</v>
+      </c>
+      <c r="C389" s="8">
+        <f t="shared" si="20"/>
+        <v>387</v>
+      </c>
+      <c r="D389" s="9">
+        <v>30</v>
+      </c>
+      <c r="E389" s="9">
+        <v>1</v>
+      </c>
+      <c r="F389" t="s">
+        <v>75</v>
+      </c>
+      <c r="G389" t="s">
+        <v>88</v>
+      </c>
+      <c r="H389" t="s">
+        <v>88</v>
+      </c>
+      <c r="I389" t="s">
+        <v>89</v>
+      </c>
+      <c r="J389" t="s">
+        <v>88</v>
+      </c>
+      <c r="K389" t="s">
+        <v>88</v>
+      </c>
+      <c r="L389" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M389" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N389" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O389" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P389" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q389" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R389" t="s">
+        <v>88</v>
+      </c>
+      <c r="S389" t="s">
+        <v>88</v>
+      </c>
+      <c r="T389" t="s">
+        <v>89</v>
+      </c>
+      <c r="U389" t="s">
+        <v>88</v>
+      </c>
+      <c r="V389" t="s">
+        <v>89</v>
+      </c>
+      <c r="W389" t="s">
+        <v>88</v>
+      </c>
+      <c r="X389" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y389" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z389" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA389" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB389" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC389" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD389" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE389" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF389" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG389" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH389" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI389" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ389" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK389" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL389" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM389" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN389" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO389" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR389" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT389" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU389" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV389" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW389" s="11"/>
+      <c r="AX389" s="11"/>
+      <c r="AY389" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ389" s="11"/>
+      <c r="BA389" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB389" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE389" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG389" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH389" s="11"/>
+      <c r="BI389" s="11"/>
+      <c r="BJ389" s="11"/>
+      <c r="BK389" s="11"/>
+      <c r="BL389" s="11"/>
+      <c r="BM389" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN389" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP389" t="s">
+        <v>82</v>
+      </c>
+      <c r="BR389" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT389" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BU389" s="11"/>
+      <c r="BV389" s="11"/>
+      <c r="BW389" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX389" s="11"/>
+      <c r="BY389" s="11"/>
+    </row>
+    <row r="390" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A390" s="7">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="B390" s="8">
+        <f t="shared" si="19"/>
+        <v>388</v>
+      </c>
+      <c r="C390" s="8">
+        <f t="shared" si="20"/>
+        <v>388</v>
+      </c>
+      <c r="D390" s="9">
+        <v>28</v>
+      </c>
+      <c r="E390" s="9">
+        <v>1</v>
+      </c>
+      <c r="F390" t="s">
+        <v>75</v>
+      </c>
+      <c r="G390" t="s">
+        <v>88</v>
+      </c>
+      <c r="H390" t="s">
+        <v>88</v>
+      </c>
+      <c r="I390" t="s">
+        <v>88</v>
+      </c>
+      <c r="J390" t="s">
+        <v>88</v>
+      </c>
+      <c r="K390" t="s">
+        <v>77</v>
+      </c>
+      <c r="L390" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M390" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N390" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O390" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P390" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q390" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R390" t="s">
+        <v>88</v>
+      </c>
+      <c r="S390" t="s">
+        <v>88</v>
+      </c>
+      <c r="T390" t="s">
+        <v>89</v>
+      </c>
+      <c r="U390" t="s">
+        <v>89</v>
+      </c>
+      <c r="V390" t="s">
+        <v>88</v>
+      </c>
+      <c r="W390" t="s">
+        <v>88</v>
+      </c>
+      <c r="X390" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y390" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z390" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA390" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB390" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC390" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD390" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE390" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF390" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG390" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH390" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI390" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ390" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK390" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL390" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM390" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN390" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO390" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ390" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR390" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS390" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT390" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV390" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW390" s="11"/>
+      <c r="AX390" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY390" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ390" s="11"/>
+      <c r="BA390" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB390" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC390" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF390" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH390" s="11"/>
+      <c r="BI390" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ390" s="11"/>
+      <c r="BK390" s="11"/>
+      <c r="BL390" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM390" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN390" t="s">
+        <v>82</v>
+      </c>
+      <c r="BP390" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ390" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT390" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BU390" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BV390" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW390" s="11"/>
+      <c r="BX390" s="11"/>
+      <c r="BY390" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="391" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A391" s="7">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="B391" s="8">
+        <f t="shared" si="19"/>
+        <v>389</v>
+      </c>
+      <c r="C391" s="8">
+        <f t="shared" si="20"/>
+        <v>389</v>
+      </c>
+      <c r="D391" s="9">
+        <v>20</v>
+      </c>
+      <c r="E391" s="9">
+        <v>1</v>
+      </c>
+      <c r="F391" t="s">
+        <v>75</v>
+      </c>
+      <c r="G391" t="s">
+        <v>88</v>
+      </c>
+      <c r="H391" t="s">
+        <v>88</v>
+      </c>
+      <c r="I391" t="s">
+        <v>88</v>
+      </c>
+      <c r="J391" t="s">
+        <v>88</v>
+      </c>
+      <c r="K391" t="s">
+        <v>77</v>
+      </c>
+      <c r="L391" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M391" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N391" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O391" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P391" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q391" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R391" t="s">
+        <v>88</v>
+      </c>
+      <c r="S391" t="s">
+        <v>89</v>
+      </c>
+      <c r="T391" t="s">
+        <v>88</v>
+      </c>
+      <c r="U391" t="s">
+        <v>88</v>
+      </c>
+      <c r="V391" t="s">
+        <v>89</v>
+      </c>
+      <c r="W391" t="s">
+        <v>88</v>
+      </c>
+      <c r="X391" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y391" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z391" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA391" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB391" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC391" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD391" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE391" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF391" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG391" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH391" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI391" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ391" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK391" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL391" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM391" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN391" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO391" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ391" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR391" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS391" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT391" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV391" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW391" s="11"/>
+      <c r="AX391" s="11"/>
+      <c r="AY391" s="11"/>
+      <c r="AZ391" s="11"/>
+      <c r="BA391" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB391" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD391" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE391" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG391" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH391" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI391" s="11"/>
+      <c r="BJ391" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK391" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BL391" s="11"/>
+      <c r="BM391" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BN391" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS391" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT391" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU391" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BV391" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BW391" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BX391" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BY391" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="392" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A392" s="7">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="B392" s="8">
+        <f t="shared" si="19"/>
+        <v>390</v>
+      </c>
+      <c r="C392" s="8">
+        <f t="shared" si="20"/>
+        <v>390</v>
+      </c>
+      <c r="D392" s="9">
+        <v>30</v>
+      </c>
+      <c r="E392" s="9">
+        <v>1</v>
+      </c>
+      <c r="F392" t="s">
+        <v>85</v>
+      </c>
+      <c r="G392" t="s">
+        <v>88</v>
+      </c>
+      <c r="H392" t="s">
+        <v>88</v>
+      </c>
+      <c r="I392" t="s">
+        <v>88</v>
+      </c>
+      <c r="J392" t="s">
+        <v>88</v>
+      </c>
+      <c r="K392" t="s">
+        <v>85</v>
+      </c>
+      <c r="L392" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M392" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N392" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O392" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P392" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q392" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R392" t="s">
+        <v>88</v>
+      </c>
+      <c r="S392" t="s">
+        <v>88</v>
+      </c>
+      <c r="T392" t="s">
+        <v>77</v>
+      </c>
+      <c r="U392" t="s">
+        <v>88</v>
+      </c>
+      <c r="V392" t="s">
+        <v>88</v>
+      </c>
+      <c r="W392" t="s">
+        <v>88</v>
+      </c>
+      <c r="X392" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y392" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z392" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA392" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB392" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC392" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD392" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE392" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF392" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG392" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH392" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI392" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ392" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK392" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL392" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM392" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN392" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO392" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP392" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU392" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV392" s="11"/>
+      <c r="AW392" s="11"/>
+      <c r="AX392" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY392" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ392" s="11"/>
+      <c r="BA392" s="11"/>
+      <c r="BC392" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE392" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF392" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH392" s="11"/>
+      <c r="BI392" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ392" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK392" s="11"/>
+      <c r="BL392" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM392" s="11"/>
+      <c r="BP392" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ392" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT392" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BU392" s="11"/>
+      <c r="BV392" s="11"/>
+      <c r="BW392" s="11"/>
+      <c r="BX392" s="11"/>
+      <c r="BY392" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="393" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A393" s="7">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="B393" s="8">
+        <f t="shared" si="19"/>
+        <v>391</v>
+      </c>
+      <c r="C393" s="8">
+        <f t="shared" si="20"/>
+        <v>391</v>
+      </c>
+      <c r="D393" s="9">
+        <v>24</v>
+      </c>
+      <c r="E393" s="9">
+        <v>1</v>
+      </c>
+      <c r="F393" t="s">
+        <v>75</v>
+      </c>
+      <c r="G393" t="s">
+        <v>88</v>
+      </c>
+      <c r="H393" t="s">
+        <v>88</v>
+      </c>
+      <c r="I393" t="s">
+        <v>88</v>
+      </c>
+      <c r="J393" t="s">
+        <v>88</v>
+      </c>
+      <c r="K393" t="s">
+        <v>88</v>
+      </c>
+      <c r="L393" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M393" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N393" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O393" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P393" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q393" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R393" t="s">
+        <v>89</v>
+      </c>
+      <c r="S393" t="s">
+        <v>88</v>
+      </c>
+      <c r="T393" t="s">
+        <v>88</v>
+      </c>
+      <c r="U393" t="s">
+        <v>88</v>
+      </c>
+      <c r="V393" t="s">
+        <v>88</v>
+      </c>
+      <c r="W393" t="s">
+        <v>88</v>
+      </c>
+      <c r="X393" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y393" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z393" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA393" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB393" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC393" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD393" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE393" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF393" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG393" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH393" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI393" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ393" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK393" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL393" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM393" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN393" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO393" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR393" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS393" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT393" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU393" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV393" s="11"/>
+      <c r="AW393" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX393" s="11"/>
+      <c r="AY393" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ393" s="11"/>
+      <c r="BA393" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD393" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF393" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH393" s="11"/>
+      <c r="BI393" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ393" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK393" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL393" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM393" s="11"/>
+      <c r="BN393" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO393" t="s">
+        <v>82</v>
+      </c>
+      <c r="BP393" t="s">
+        <v>78</v>
+      </c>
+      <c r="BR393" t="s">
+        <v>87</v>
+      </c>
+      <c r="BS393" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT393" s="11"/>
+      <c r="BU393" s="11"/>
+      <c r="BV393" s="11"/>
+      <c r="BW393" s="11"/>
+      <c r="BX393" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY393" s="11"/>
+    </row>
+    <row r="394" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A394" s="7">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="B394" s="8">
+        <f t="shared" si="19"/>
+        <v>392</v>
+      </c>
+      <c r="C394" s="8">
+        <f t="shared" si="20"/>
+        <v>392</v>
+      </c>
+      <c r="D394" s="9">
+        <v>29</v>
+      </c>
+      <c r="E394" s="9">
+        <v>1</v>
+      </c>
+      <c r="F394" t="s">
+        <v>75</v>
+      </c>
+      <c r="G394" t="s">
+        <v>88</v>
+      </c>
+      <c r="H394" t="s">
+        <v>88</v>
+      </c>
+      <c r="I394" t="s">
+        <v>88</v>
+      </c>
+      <c r="J394" t="s">
+        <v>88</v>
+      </c>
+      <c r="K394" t="s">
+        <v>88</v>
+      </c>
+      <c r="L394" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M394" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N394" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O394" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P394" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q394" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R394" t="s">
+        <v>88</v>
+      </c>
+      <c r="S394" t="s">
+        <v>88</v>
+      </c>
+      <c r="T394" t="s">
+        <v>88</v>
+      </c>
+      <c r="U394" t="s">
+        <v>89</v>
+      </c>
+      <c r="V394" t="s">
+        <v>89</v>
+      </c>
+      <c r="W394" t="s">
+        <v>88</v>
+      </c>
+      <c r="X394" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y394" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z394" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA394" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB394" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC394" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD394" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE394" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF394" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG394" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH394" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI394" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ394" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK394" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL394" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM394" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN394" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO394" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ394" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR394" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS394" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU394" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV394" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW394" s="11"/>
+      <c r="AX394" s="11"/>
+      <c r="AY394" s="11"/>
+      <c r="AZ394" s="11"/>
+      <c r="BA394" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG394" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH394" s="11"/>
+      <c r="BI394" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ394" s="11"/>
+      <c r="BK394" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL394" s="11"/>
+      <c r="BM394" s="11"/>
+      <c r="BP394" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ394" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS394" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT394" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU394" s="11"/>
+      <c r="BV394" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW394" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX394" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY394" s="11"/>
+    </row>
+    <row r="395" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A395" s="7">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="B395" s="8">
+        <f t="shared" si="19"/>
+        <v>393</v>
+      </c>
+      <c r="C395" s="8">
+        <f t="shared" si="20"/>
+        <v>393</v>
+      </c>
+      <c r="D395" s="9">
+        <v>29</v>
+      </c>
+      <c r="E395" s="9">
+        <v>1</v>
+      </c>
+      <c r="F395" t="s">
+        <v>88</v>
+      </c>
+      <c r="G395" t="s">
+        <v>88</v>
+      </c>
+      <c r="H395" t="s">
+        <v>88</v>
+      </c>
+      <c r="I395" t="s">
+        <v>88</v>
+      </c>
+      <c r="J395" t="s">
+        <v>88</v>
+      </c>
+      <c r="K395" t="s">
+        <v>88</v>
+      </c>
+      <c r="L395" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M395" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N395" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O395" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P395" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q395" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R395" t="s">
+        <v>75</v>
+      </c>
+      <c r="S395" t="s">
+        <v>88</v>
+      </c>
+      <c r="T395" t="s">
+        <v>88</v>
+      </c>
+      <c r="U395" t="s">
+        <v>88</v>
+      </c>
+      <c r="V395" t="s">
+        <v>88</v>
+      </c>
+      <c r="W395" t="s">
+        <v>77</v>
+      </c>
+      <c r="X395" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y395" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z395" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA395" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB395" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC395" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD395" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE395" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF395" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG395" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH395" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI395" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ395" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK395" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL395" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM395" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN395" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO395" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR395" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS395" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU395" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV395" s="11"/>
+      <c r="AW395" s="11"/>
+      <c r="AX395" s="11"/>
+      <c r="AY395" s="11"/>
+      <c r="AZ395" s="11"/>
+      <c r="BA395" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC395" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD395" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE395" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF395" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH395" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI395" s="11"/>
+      <c r="BJ395" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK395" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BL395" s="11"/>
+      <c r="BM395" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS395" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT395" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU395" s="11"/>
+      <c r="BV395" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW395" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BX395" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY395" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="396" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A396" s="7">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="B396" s="8">
+        <f t="shared" si="19"/>
+        <v>394</v>
+      </c>
+      <c r="C396" s="8">
+        <f t="shared" si="20"/>
+        <v>394</v>
+      </c>
+      <c r="D396" s="9">
+        <v>25</v>
+      </c>
+      <c r="E396" s="9">
+        <v>1</v>
+      </c>
+      <c r="F396" t="s">
+        <v>75</v>
+      </c>
+      <c r="G396" t="s">
+        <v>88</v>
+      </c>
+      <c r="H396" t="s">
+        <v>88</v>
+      </c>
+      <c r="I396" t="s">
+        <v>88</v>
+      </c>
+      <c r="J396" t="s">
+        <v>88</v>
+      </c>
+      <c r="K396" t="s">
+        <v>88</v>
+      </c>
+      <c r="L396" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M396" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N396" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O396" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P396" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q396" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R396" t="s">
+        <v>88</v>
+      </c>
+      <c r="S396" t="s">
+        <v>88</v>
+      </c>
+      <c r="T396" t="s">
+        <v>88</v>
+      </c>
+      <c r="U396" t="s">
+        <v>88</v>
+      </c>
+      <c r="V396" t="s">
+        <v>88</v>
+      </c>
+      <c r="W396" t="s">
+        <v>88</v>
+      </c>
+      <c r="X396" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y396" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z396" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA396" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB396" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC396" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD396" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE396" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF396" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG396" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH396" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI396" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ396" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK396" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL396" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM396" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN396" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO396" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV396" s="11"/>
+      <c r="AW396" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX396" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY396" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ396" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA396" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC396" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD396" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE396" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF396" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH396" s="11"/>
+      <c r="BI396" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ396" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BK396" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL396" s="11"/>
+      <c r="BM396" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="BO396" t="s">
+        <v>78</v>
+      </c>
+      <c r="BQ396" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR396" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT396" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU396" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV396" s="11"/>
+      <c r="BW396" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX396" s="11"/>
+      <c r="BY396" s="11"/>
+    </row>
+    <row r="397" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A397" s="7">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="B397" s="8">
+        <f t="shared" si="19"/>
+        <v>395</v>
+      </c>
+      <c r="C397" s="8">
+        <f t="shared" si="20"/>
+        <v>395</v>
+      </c>
+      <c r="D397" s="9">
+        <v>25</v>
+      </c>
+      <c r="E397" s="9">
+        <v>1</v>
+      </c>
+      <c r="F397" t="s">
+        <v>75</v>
+      </c>
+      <c r="G397" t="s">
+        <v>88</v>
+      </c>
+      <c r="H397" t="s">
+        <v>89</v>
+      </c>
+      <c r="I397" t="s">
+        <v>88</v>
+      </c>
+      <c r="J397" t="s">
+        <v>88</v>
+      </c>
+      <c r="K397" t="s">
+        <v>89</v>
+      </c>
+      <c r="L397" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M397" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N397" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O397" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P397" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q397" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R397" t="s">
+        <v>88</v>
+      </c>
+      <c r="S397" t="s">
+        <v>88</v>
+      </c>
+      <c r="T397" t="s">
+        <v>88</v>
+      </c>
+      <c r="U397" t="s">
+        <v>89</v>
+      </c>
+      <c r="V397" t="s">
+        <v>88</v>
+      </c>
+      <c r="W397" t="s">
+        <v>88</v>
+      </c>
+      <c r="X397" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y397" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z397" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA397" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB397" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC397" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD397" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE397" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF397" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG397" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH397" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI397" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ397" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK397" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL397" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM397" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN397" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO397" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ397" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS397" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT397" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV397" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW397" s="11"/>
+      <c r="AX397" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY397" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ397" s="11"/>
+      <c r="BA397" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB397" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC397" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD397" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF397" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG397" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH397" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI397" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ397" s="11"/>
+      <c r="BK397" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL397" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM397" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BN397" t="s">
+        <v>83</v>
+      </c>
+      <c r="BP397" t="s">
+        <v>83</v>
+      </c>
+      <c r="BQ397" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS397" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT397" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BU397" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BV397" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BW397" s="11"/>
+      <c r="BX397" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY397" s="11"/>
+    </row>
+    <row r="398" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A398" s="7">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="B398" s="8">
+        <f t="shared" si="19"/>
+        <v>396</v>
+      </c>
+      <c r="C398" s="8">
+        <f t="shared" si="20"/>
+        <v>396</v>
+      </c>
+      <c r="D398" s="9">
+        <v>26</v>
+      </c>
+      <c r="E398" s="9">
+        <v>1</v>
+      </c>
+      <c r="F398" t="s">
+        <v>88</v>
+      </c>
+      <c r="G398" t="s">
+        <v>88</v>
+      </c>
+      <c r="H398" t="s">
+        <v>88</v>
+      </c>
+      <c r="I398" t="s">
+        <v>88</v>
+      </c>
+      <c r="J398" t="s">
+        <v>88</v>
+      </c>
+      <c r="K398" t="s">
+        <v>88</v>
+      </c>
+      <c r="L398" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M398" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N398" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O398" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P398" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q398" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R398" t="s">
+        <v>88</v>
+      </c>
+      <c r="S398" t="s">
+        <v>88</v>
+      </c>
+      <c r="T398" t="s">
+        <v>75</v>
+      </c>
+      <c r="U398" t="s">
+        <v>88</v>
+      </c>
+      <c r="V398" t="s">
+        <v>89</v>
+      </c>
+      <c r="W398" t="s">
+        <v>88</v>
+      </c>
+      <c r="X398" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y398" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z398" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA398" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB398" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC398" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD398" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE398" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF398" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG398" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH398" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI398" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ398" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK398" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL398" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM398" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN398" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO398" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP398" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ398" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR398" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS398" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT398" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU398" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV398" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW398" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX398" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY398" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ398" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA398" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB398" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC398" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE398" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF398" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG398" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH398" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI398" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ398" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK398" s="11"/>
+      <c r="BL398" s="11"/>
+      <c r="BM398" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN398" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO398" t="s">
+        <v>83</v>
+      </c>
+      <c r="BP398" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR398" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS398" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT398" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU398" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BV398" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW398" s="11"/>
+      <c r="BX398" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BY398" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="399" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A399" s="7">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="B399" s="8">
+        <f t="shared" si="19"/>
+        <v>397</v>
+      </c>
+      <c r="C399" s="8">
+        <f t="shared" si="20"/>
+        <v>397</v>
+      </c>
+      <c r="D399" s="9">
+        <v>22</v>
+      </c>
+      <c r="E399" s="9">
+        <v>1</v>
+      </c>
+      <c r="F399" t="s">
+        <v>75</v>
+      </c>
+      <c r="G399" t="s">
+        <v>88</v>
+      </c>
+      <c r="H399" t="s">
+        <v>88</v>
+      </c>
+      <c r="I399" t="s">
+        <v>88</v>
+      </c>
+      <c r="J399" t="s">
+        <v>88</v>
+      </c>
+      <c r="K399" t="s">
+        <v>88</v>
+      </c>
+      <c r="L399" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M399" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N399" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O399" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P399" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q399" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="R399" t="s">
+        <v>88</v>
+      </c>
+      <c r="S399" t="s">
+        <v>85</v>
+      </c>
+      <c r="T399" t="s">
+        <v>88</v>
+      </c>
+      <c r="U399" t="s">
+        <v>88</v>
+      </c>
+      <c r="V399" t="s">
+        <v>85</v>
+      </c>
+      <c r="W399" t="s">
+        <v>88</v>
+      </c>
+      <c r="X399" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y399" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z399" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA399" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB399" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC399" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD399" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE399" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF399" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG399" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH399" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI399" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ399" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK399" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL399" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM399" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN399" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO399" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR399" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT399" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU399" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV399" s="11"/>
+      <c r="AW399" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX399" s="11"/>
+      <c r="AY399" s="11"/>
+      <c r="AZ399" s="11"/>
+      <c r="BA399" s="11"/>
+      <c r="BB399" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE399" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG399" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH399" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BI399" s="11"/>
+      <c r="BJ399" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK399" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL399" s="11"/>
+      <c r="BM399" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BR399" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT399" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BU399" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="BV399" s="11"/>
+      <c r="BW399" s="11"/>
+      <c r="BX399" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BY399" s="11"/>
+    </row>
+    <row r="400" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A400" s="7">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="B400" s="8">
+        <f t="shared" si="19"/>
+        <v>398</v>
+      </c>
+      <c r="C400" s="8">
+        <f t="shared" si="20"/>
+        <v>398</v>
+      </c>
+      <c r="D400" s="9">
+        <v>27</v>
+      </c>
+      <c r="E400" s="9">
+        <v>1</v>
+      </c>
+      <c r="F400" t="s">
+        <v>88</v>
+      </c>
+      <c r="G400" t="s">
+        <v>89</v>
+      </c>
+      <c r="H400" t="s">
+        <v>89</v>
+      </c>
+      <c r="I400" t="s">
+        <v>88</v>
+      </c>
+      <c r="J400" t="s">
+        <v>88</v>
+      </c>
+      <c r="K400" t="s">
+        <v>88</v>
+      </c>
+      <c r="L400" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M400" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N400" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O400" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P400" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q400" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="R400" t="s">
+        <v>88</v>
+      </c>
+      <c r="S400" t="s">
+        <v>89</v>
+      </c>
+      <c r="T400" t="s">
+        <v>88</v>
+      </c>
+      <c r="U400" t="s">
+        <v>88</v>
+      </c>
+      <c r="V400" t="s">
+        <v>89</v>
+      </c>
+      <c r="W400" t="s">
+        <v>88</v>
+      </c>
+      <c r="X400" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y400" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z400" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA400" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB400" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC400" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD400" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE400" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF400" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG400" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH400" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI400" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ400" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK400" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL400" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM400" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN400" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO400" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP400" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS400" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT400" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU400" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV400" s="11"/>
+      <c r="AW400" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX400" s="11"/>
+      <c r="AY400" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ400" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA400" s="11"/>
+      <c r="BD400" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE400" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG400" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH400" s="11"/>
+      <c r="BI400" s="11"/>
+      <c r="BJ400" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BK400" s="11"/>
+      <c r="BL400" s="11"/>
+      <c r="BM400" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="BO400" t="s">
+        <v>83</v>
+      </c>
+      <c r="BP400" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ400" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS400" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT400" s="11"/>
+      <c r="BU400" s="11"/>
+      <c r="BV400" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW400" s="11"/>
+      <c r="BX400" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY400" s="11"/>
+    </row>
+    <row r="401" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A401" s="7">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="B401" s="8">
+        <f t="shared" si="19"/>
+        <v>399</v>
+      </c>
+      <c r="C401" s="8">
+        <f t="shared" si="20"/>
+        <v>399</v>
+      </c>
+      <c r="D401" s="9">
+        <v>30</v>
+      </c>
+      <c r="E401" s="9">
+        <v>1</v>
+      </c>
+      <c r="F401" t="s">
+        <v>89</v>
+      </c>
+      <c r="G401" t="s">
+        <v>88</v>
+      </c>
+      <c r="H401" t="s">
+        <v>88</v>
+      </c>
+      <c r="I401" t="s">
+        <v>88</v>
+      </c>
+      <c r="J401" t="s">
+        <v>88</v>
+      </c>
+      <c r="K401" t="s">
+        <v>88</v>
+      </c>
+      <c r="L401" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M401" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N401" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O401" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P401" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q401" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R401" t="s">
+        <v>88</v>
+      </c>
+      <c r="S401" t="s">
+        <v>88</v>
+      </c>
+      <c r="T401" t="s">
+        <v>89</v>
+      </c>
+      <c r="U401" t="s">
+        <v>88</v>
+      </c>
+      <c r="V401" t="s">
+        <v>88</v>
+      </c>
+      <c r="W401" t="s">
+        <v>88</v>
+      </c>
+      <c r="X401" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y401" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z401" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA401" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB401" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC401" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD401" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE401" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF401" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG401" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH401" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI401" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ401" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK401" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL401" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM401" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN401" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO401" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ401" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT401" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU401" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV401" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW401" s="11"/>
+      <c r="AX401" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY401" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ401" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA401" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC401" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE401" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF401" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH401" s="11"/>
+      <c r="BI401" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ401" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK401" s="11"/>
+      <c r="BL401" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM401" s="11"/>
+      <c r="BN401" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO401" t="s">
+        <v>83</v>
+      </c>
+      <c r="BP401" t="s">
+        <v>78</v>
+      </c>
+      <c r="BQ401" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS401" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT401" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU401" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BV401" s="11"/>
+      <c r="BW401" s="11"/>
+      <c r="BX401" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY401" s="11"/>
+    </row>
+    <row r="402" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A402" s="7">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="B402" s="8">
+        <f t="shared" si="19"/>
+        <v>400</v>
+      </c>
+      <c r="C402" s="8">
+        <f t="shared" si="20"/>
+        <v>400</v>
+      </c>
+      <c r="D402" s="9">
+        <v>13</v>
+      </c>
+      <c r="E402" s="9">
+        <v>1</v>
+      </c>
+      <c r="F402" t="s">
+        <v>75</v>
+      </c>
+      <c r="G402" t="s">
+        <v>89</v>
+      </c>
+      <c r="H402" t="s">
+        <v>89</v>
+      </c>
+      <c r="I402" t="s">
+        <v>89</v>
+      </c>
+      <c r="J402" t="s">
+        <v>89</v>
+      </c>
+      <c r="K402" t="s">
+        <v>89</v>
+      </c>
+      <c r="L402" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M402" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="N402" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O402" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P402" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q402" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R402" t="s">
+        <v>88</v>
+      </c>
+      <c r="S402" t="s">
+        <v>85</v>
+      </c>
+      <c r="T402" t="s">
+        <v>88</v>
+      </c>
+      <c r="U402" t="s">
+        <v>88</v>
+      </c>
+      <c r="V402" t="s">
+        <v>85</v>
+      </c>
+      <c r="W402" t="s">
+        <v>88</v>
+      </c>
+      <c r="X402" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y402" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z402" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA402" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB402" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC402" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD402" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE402" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF402" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG402" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH402" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI402" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ402" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK402" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL402" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM402" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN402" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO402" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV402" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW402" s="11"/>
+      <c r="AX402" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY402" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ402" s="11"/>
+      <c r="BA402" s="11"/>
+      <c r="BD402" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE402" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG402" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH402" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI402" s="11"/>
+      <c r="BJ402" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK402" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL402" s="11"/>
+      <c r="BM402" s="11"/>
+      <c r="BP402" t="s">
+        <v>83</v>
+      </c>
+      <c r="BQ402" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS402" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT402" s="11"/>
+      <c r="BU402" s="11"/>
+      <c r="BV402" s="11"/>
+      <c r="BW402" s="11"/>
+      <c r="BX402" s="11"/>
+      <c r="BY402" s="11"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:BY1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:BY1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
